--- a/个人日报/个人日报_熊伟.xlsx
+++ b/个人日报/个人日报_熊伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947" activeTab="4"/>
+    <workbookView windowWidth="22103" windowHeight="9947" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -363,16 +363,34 @@
   <si>
     <t>复习结构体</t>
   </si>
+  <si>
+    <t>电子词典</t>
+  </si>
+  <si>
+    <t>复习C语言链表及文件</t>
+  </si>
+  <si>
+    <t>复习C语言链表知识</t>
+  </si>
+  <si>
+    <t>复习C语言文件只是</t>
+  </si>
+  <si>
+    <t>讨论项目需求，完成项目草案</t>
+  </si>
+  <si>
+    <t>小组讨论</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -621,6 +639,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -634,27 +672,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -662,61 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -730,7 +693,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -743,15 +733,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -794,7 +812,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,31 +896,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,31 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,97 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,11 +1434,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,8 +1444,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,6 +1461,21 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1488,26 +1519,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1526,161 +1544,161 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="26" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,7 +1755,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1908,6 +1926,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15607,383 +15629,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="130" customWidth="1"/>
-    <col min="2" max="2" width="9" style="130"/>
-    <col min="3" max="3" width="8.375" style="130" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="130"/>
+    <col min="1" max="1" width="7.5" style="131" customWidth="1"/>
+    <col min="2" max="2" width="9" style="131"/>
+    <col min="3" max="3" width="8.375" style="131" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" s="129" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A1" s="85"/>
-    </row>
-    <row r="2" s="129" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A2" s="85" t="s">
+    <row r="1" s="130" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A1" s="86"/>
+    </row>
+    <row r="2" s="130" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A3" s="88" t="s">
+    <row r="3" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="131"/>
-    </row>
-    <row r="5" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A5" s="131"/>
-    </row>
-    <row r="6" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A6" s="131"/>
-    </row>
-    <row r="7" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A7" s="131"/>
-    </row>
-    <row r="8" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A8" s="131"/>
-    </row>
-    <row r="9" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A9" s="131"/>
-    </row>
-    <row r="10" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A10" s="131"/>
-    </row>
-    <row r="11" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A11" s="131"/>
-    </row>
-    <row r="12" s="129" customFormat="1" ht="17.4" spans="1:3">
-      <c r="A12" s="131"/>
-      <c r="C12" s="132"/>
-    </row>
-    <row r="13" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A13" s="131"/>
-    </row>
-    <row r="14" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-    </row>
-    <row r="15" s="129" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="135" t="s">
+    <row r="4" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="132"/>
+    </row>
+    <row r="5" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A5" s="132"/>
+    </row>
+    <row r="6" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A6" s="132"/>
+    </row>
+    <row r="7" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A7" s="132"/>
+    </row>
+    <row r="8" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A8" s="132"/>
+    </row>
+    <row r="9" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A9" s="132"/>
+    </row>
+    <row r="10" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A10" s="132"/>
+    </row>
+    <row r="11" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A11" s="132"/>
+    </row>
+    <row r="12" s="130" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A12" s="132"/>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A13" s="132"/>
+    </row>
+    <row r="14" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+    </row>
+    <row r="15" s="130" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-    </row>
-    <row r="16" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A16" s="137"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-    </row>
-    <row r="17" s="129" customFormat="1" ht="18" spans="1:9">
-      <c r="A17" s="138" t="s">
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+    </row>
+    <row r="16" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A16" s="138"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+    </row>
+    <row r="17" s="130" customFormat="1" ht="18" spans="1:9">
+      <c r="A17" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-    </row>
-    <row r="18" s="129" customFormat="1" ht="18" spans="1:9">
-      <c r="A18" s="98">
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+    </row>
+    <row r="18" s="130" customFormat="1" ht="18" spans="1:9">
+      <c r="A18" s="99">
         <v>40142</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-    </row>
-    <row r="19" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-    </row>
-    <row r="20" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-    </row>
-    <row r="21" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-    </row>
-    <row r="22" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-    </row>
-    <row r="23" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-    </row>
-    <row r="24" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-    </row>
-    <row r="25" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-    </row>
-    <row r="26" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-    </row>
-    <row r="27" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-    </row>
-    <row r="28" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-    </row>
-    <row r="29" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-    </row>
-    <row r="30" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="133"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-    </row>
-    <row r="31" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-    </row>
-    <row r="32" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-    </row>
-    <row r="33" s="129" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A33" s="139" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+    </row>
+    <row r="19" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+    </row>
+    <row r="20" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+    </row>
+    <row r="21" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+    </row>
+    <row r="22" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+    </row>
+    <row r="23" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+    </row>
+    <row r="24" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+    </row>
+    <row r="25" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+    </row>
+    <row r="26" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+    </row>
+    <row r="27" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="134"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+    </row>
+    <row r="28" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+    </row>
+    <row r="29" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+    </row>
+    <row r="30" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+    </row>
+    <row r="31" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+    </row>
+    <row r="32" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+    </row>
+    <row r="33" s="130" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A33" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="144"/>
-    </row>
-    <row r="34" s="129" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A34" s="140" t="s">
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="145"/>
+    </row>
+    <row r="34" s="130" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A34" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="144"/>
-    </row>
-    <row r="35" s="129" customFormat="1" spans="1:10">
-      <c r="A35" s="141"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="144"/>
-    </row>
-    <row r="36" s="129" customFormat="1" spans="1:9">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-    </row>
-    <row r="37" s="129" customFormat="1"/>
-    <row r="38" s="129" customFormat="1"/>
-    <row r="39" s="129" customFormat="1"/>
-    <row r="40" s="129" customFormat="1"/>
-    <row r="41" s="129" customFormat="1"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="145"/>
+    </row>
+    <row r="35" s="130" customFormat="1" spans="1:10">
+      <c r="A35" s="142"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="145"/>
+    </row>
+    <row r="36" s="130" customFormat="1" spans="1:9">
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+    </row>
+    <row r="37" s="130" customFormat="1"/>
+    <row r="38" s="130" customFormat="1"/>
+    <row r="39" s="130" customFormat="1"/>
+    <row r="40" s="130" customFormat="1"/>
+    <row r="41" s="130" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="142"/>
+      <c r="A58" s="143"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="143"/>
+      <c r="A59" s="144"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="145"/>
+      <c r="A101" s="146"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="145"/>
+      <c r="A102" s="146"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="145"/>
+      <c r="A103" s="146"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="145"/>
+      <c r="A104" s="146"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="145"/>
+      <c r="A105" s="146"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="145"/>
+      <c r="A106" s="146"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="145"/>
+      <c r="A107" s="146"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="145"/>
+      <c r="A108" s="146"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="145"/>
+      <c r="A109" s="146"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="145"/>
+      <c r="A110" s="146"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="145"/>
+      <c r="A111" s="146"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="145"/>
+      <c r="A112" s="146"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="145"/>
+      <c r="A113" s="146"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="145"/>
+      <c r="A114" s="146"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="145"/>
+      <c r="A115" s="146"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="145"/>
+      <c r="A116" s="146"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="145"/>
+      <c r="A117" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16007,208 +16029,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="114" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="114" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="114" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="114" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="114"/>
+    <col min="1" max="1" width="12.625" style="115" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="115" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="115" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="115" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:5">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="118"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="120" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A4" s="120">
+    <row r="4" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="123">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" s="113" customFormat="1" spans="1:4">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="122"/>
-    </row>
-    <row r="6" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
-    </row>
-    <row r="7" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-    </row>
-    <row r="8" s="113" customFormat="1" spans="1:4">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="122"/>
-    </row>
-    <row r="9" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-    </row>
-    <row r="10" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A10" s="120"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-    </row>
-    <row r="11" s="113" customFormat="1" spans="1:4">
-      <c r="A11" s="120"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="122"/>
-    </row>
-    <row r="12" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A12" s="120"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-    </row>
-    <row r="13" s="113" customFormat="1" spans="1:4">
-      <c r="A13" s="120"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="122"/>
-    </row>
-    <row r="14" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A14" s="120"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-    </row>
-    <row r="15" s="113" customFormat="1" spans="1:4">
-      <c r="A15" s="120"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="122"/>
-    </row>
-    <row r="16" s="113" customFormat="1" spans="1:4">
-      <c r="A16" s="120"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="122"/>
-    </row>
-    <row r="17" s="113" customFormat="1" spans="1:4">
-      <c r="A17" s="120"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="122"/>
-    </row>
-    <row r="18" s="113" customFormat="1" spans="1:4">
-      <c r="A18" s="120"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="122"/>
+    <row r="5" s="114" customFormat="1" spans="1:4">
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="123"/>
+    </row>
+    <row r="6" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
+    </row>
+    <row r="7" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
+    </row>
+    <row r="8" s="114" customFormat="1" spans="1:4">
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="123"/>
+    </row>
+    <row r="9" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+    </row>
+    <row r="10" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A10" s="121"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+    </row>
+    <row r="11" s="114" customFormat="1" spans="1:4">
+      <c r="A11" s="121"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="123"/>
+    </row>
+    <row r="12" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A12" s="121"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+    </row>
+    <row r="13" s="114" customFormat="1" spans="1:4">
+      <c r="A13" s="121"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="123"/>
+    </row>
+    <row r="14" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A14" s="121"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+    </row>
+    <row r="15" s="114" customFormat="1" spans="1:4">
+      <c r="A15" s="121"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="123"/>
+    </row>
+    <row r="16" s="114" customFormat="1" spans="1:4">
+      <c r="A16" s="121"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="123"/>
+    </row>
+    <row r="17" s="114" customFormat="1" spans="1:4">
+      <c r="A17" s="121"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="123"/>
+    </row>
+    <row r="18" s="114" customFormat="1" spans="1:4">
+      <c r="A18" s="121"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="123"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="120"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="122"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="120"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="122"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="123"/>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="120"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="123"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="128"/>
+      <c r="A95" s="129"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="128"/>
+      <c r="A96" s="129"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="128"/>
+      <c r="A97" s="129"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="128"/>
+      <c r="A98" s="129"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="128"/>
+      <c r="A99" s="129"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="128"/>
+      <c r="A100" s="129"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="128"/>
+      <c r="A101" s="129"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="128"/>
+      <c r="A102" s="129"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="128"/>
+      <c r="A103" s="129"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="128"/>
+      <c r="A104" s="129"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="128"/>
+      <c r="A105" s="129"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="128"/>
+      <c r="A106" s="129"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="128"/>
+      <c r="A107" s="129"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="128"/>
+      <c r="A108" s="129"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="128"/>
+      <c r="A109" s="129"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="128"/>
+      <c r="A110" s="129"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="128"/>
+      <c r="A111" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16228,327 +16250,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="83" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="83" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="83" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="83" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="83"/>
+    <col min="1" max="1" width="9.25" style="84" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="84" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="84" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="84" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" s="78" customFormat="1" ht="22.8" spans="1:1">
-      <c r="A1" s="84"/>
-    </row>
-    <row r="2" s="78" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="85" t="s">
+    <row r="1" s="79" customFormat="1" ht="22.8" spans="1:1">
+      <c r="A1" s="85"/>
+    </row>
+    <row r="2" s="79" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="79" customFormat="1" ht="22.8" spans="1:9">
-      <c r="A3" s="86" t="s">
+    <row r="3" s="80" customFormat="1" ht="22.8" spans="1:9">
+      <c r="A3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-    </row>
-    <row r="4" s="78" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="88" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+    </row>
+    <row r="4" s="79" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A5" s="89"/>
-    </row>
-    <row r="6" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A6" s="89"/>
-    </row>
-    <row r="7" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A7" s="89"/>
-    </row>
-    <row r="8" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A8" s="89"/>
-    </row>
-    <row r="9" s="78" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="89"/>
-    </row>
-    <row r="10" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A10" s="89"/>
-    </row>
-    <row r="11" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A11" s="89"/>
-    </row>
-    <row r="12" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A12" s="89"/>
-    </row>
-    <row r="13" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A13" s="89"/>
-    </row>
-    <row r="14" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A14" s="89"/>
-    </row>
-    <row r="15" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-    </row>
-    <row r="16" s="80" customFormat="1" ht="45" spans="1:8">
-      <c r="A16" s="92" t="s">
+    <row r="5" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A5" s="90"/>
+    </row>
+    <row r="6" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A6" s="90"/>
+    </row>
+    <row r="7" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A7" s="90"/>
+    </row>
+    <row r="8" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A8" s="90"/>
+    </row>
+    <row r="9" s="79" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="90"/>
+    </row>
+    <row r="10" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A10" s="90"/>
+    </row>
+    <row r="11" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A11" s="90"/>
+    </row>
+    <row r="12" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A12" s="90"/>
+    </row>
+    <row r="13" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A13" s="90"/>
+    </row>
+    <row r="14" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A14" s="90"/>
+    </row>
+    <row r="15" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+    </row>
+    <row r="16" s="81" customFormat="1" ht="45" spans="1:8">
+      <c r="A16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-    </row>
-    <row r="17" s="80" customFormat="1" spans="1:8">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-    </row>
-    <row r="18" s="78" customFormat="1" ht="53.4" spans="1:8">
-      <c r="A18" s="96" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" s="81" customFormat="1" spans="1:8">
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" s="79" customFormat="1" ht="53.4" spans="1:8">
+      <c r="A18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-    </row>
-    <row r="20" s="78" customFormat="1" ht="46.2" spans="1:8">
-      <c r="A20" s="97"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-    </row>
-    <row r="21" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A21" s="98"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-    </row>
-    <row r="22" s="78" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="99" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+    </row>
+    <row r="19" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+    </row>
+    <row r="20" s="79" customFormat="1" ht="46.2" spans="1:8">
+      <c r="A20" s="98"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+    </row>
+    <row r="21" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A21" s="99"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+    </row>
+    <row r="22" s="79" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-    </row>
-    <row r="23" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-    </row>
-    <row r="24" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-    </row>
-    <row r="25" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-    </row>
-    <row r="26" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-    </row>
-    <row r="27" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-    </row>
-    <row r="28" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-    </row>
-    <row r="29" s="81" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="101" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+    </row>
+    <row r="23" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+    </row>
+    <row r="24" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+    </row>
+    <row r="25" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+    </row>
+    <row r="26" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+    </row>
+    <row r="27" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+    </row>
+    <row r="29" s="82" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-    </row>
-    <row r="30" s="81" customFormat="1" spans="1:8">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-    </row>
-    <row r="31" s="81" customFormat="1" spans="1:8">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-    </row>
-    <row r="32" s="81" customFormat="1" spans="1:8">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-    </row>
-    <row r="33" s="82" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="105" t="s">
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" s="82" customFormat="1" spans="1:8">
+      <c r="A30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" s="82" customFormat="1" spans="1:8">
+      <c r="A31" s="104"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" s="82" customFormat="1" spans="1:8">
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+    </row>
+    <row r="33" s="83" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="105" t="s">
+      <c r="B33" s="107"/>
+      <c r="C33" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="105" t="s">
+      <c r="D33" s="107"/>
+      <c r="E33" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107" t="s">
+      <c r="F33" s="107"/>
+      <c r="G33" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="106"/>
-    </row>
-    <row r="34" s="82" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="105" t="s">
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" s="83" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="105" t="s">
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-    </row>
-    <row r="35" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-    </row>
-    <row r="36" s="78" customFormat="1" ht="19.2" spans="1:8">
-      <c r="A36" s="109"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-    </row>
-    <row r="37" s="78" customFormat="1" ht="18.6" spans="1:8">
-      <c r="A37" s="110"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-    </row>
-    <row r="38" s="78" customFormat="1"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+    </row>
+    <row r="36" s="79" customFormat="1" ht="19.2" spans="1:8">
+      <c r="A36" s="110"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+    </row>
+    <row r="37" s="79" customFormat="1" ht="18.6" spans="1:8">
+      <c r="A37" s="111"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+    </row>
+    <row r="38" s="79" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="112"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="112"/>
+      <c r="A56" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16627,14 +16649,14 @@
       <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -16647,7 +16669,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="64"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
@@ -16662,7 +16684,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
@@ -16677,7 +16699,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
@@ -16692,7 +16714,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -16705,7 +16727,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -16724,7 +16746,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="70" t="s">
         <v>43</v>
       </c>
     </row>
@@ -16744,8 +16766,8 @@
         <v>45</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="71"/>
+      <c r="J10" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16765,8 +16787,8 @@
         <v>45</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71" t="s">
+      <c r="I11" s="71"/>
+      <c r="J11" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16786,8 +16808,8 @@
         <v>45</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71" t="s">
+      <c r="I12" s="71"/>
+      <c r="J12" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16801,8 +16823,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="72"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -16814,8 +16836,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="72"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -16827,8 +16849,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -16840,8 +16862,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -16856,8 +16878,8 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -16870,7 +16892,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -16887,7 +16909,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="75"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
@@ -16900,7 +16922,7 @@
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="76"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
@@ -16913,7 +16935,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="76"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B22" s="58">
@@ -16926,7 +16948,7 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="24" ht="15.6" spans="2:2">
       <c r="B24" s="63" t="s">
@@ -16994,8 +17016,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17053,14 +17075,14 @@
       <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -17073,7 +17095,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="64"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
@@ -17088,7 +17110,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
@@ -17103,7 +17125,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
@@ -17118,7 +17140,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -17131,7 +17153,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -17150,7 +17172,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="70" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17170,8 +17192,8 @@
         <v>57</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="71"/>
+      <c r="J10" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17191,8 +17213,8 @@
         <v>57</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71" t="s">
+      <c r="I11" s="71"/>
+      <c r="J11" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17206,8 +17228,8 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B13" s="35">
@@ -17219,8 +17241,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="72"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -17232,8 +17254,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="72"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -17245,8 +17267,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -17258,8 +17280,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -17274,8 +17296,8 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -17288,7 +17310,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -17305,7 +17327,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="75"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
@@ -17318,7 +17340,7 @@
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="76"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
@@ -17331,7 +17353,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="76"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B22" s="58">
@@ -17344,7 +17366,7 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B24" s="63" t="s">
@@ -17411,8 +17433,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17464,18 +17486,22 @@
       <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14">
+        <v>43666</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -17488,46 +17514,52 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="64"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="23">
+        <v>43666</v>
+      </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>43666</v>
+      </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -17540,7 +17572,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -17559,7 +17591,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="70" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17567,14 +17599,20 @@
       <c r="B10" s="35">
         <v>1</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="F10" s="38">
+        <v>4</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="71"/>
+      <c r="J10" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17582,14 +17620,20 @@
       <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71" t="s">
+      <c r="I11" s="71"/>
+      <c r="J11" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17597,14 +17641,20 @@
       <c r="B12" s="41">
         <v>3</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71" t="s">
+      <c r="I12" s="71"/>
+      <c r="J12" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17618,8 +17668,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="72"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -17631,8 +17681,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="72"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -17644,8 +17694,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -17657,8 +17707,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -17669,12 +17719,12 @@
       <c r="E17" s="45"/>
       <c r="F17" s="46">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -17687,7 +17737,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -17704,7 +17754,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="75"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
@@ -17717,7 +17767,7 @@
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="76"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
@@ -17730,7 +17780,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="76"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B22" s="58">
@@ -17743,7 +17793,7 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B24" s="63" t="s">

--- a/个人日报/个人日报_熊伟.xlsx
+++ b/个人日报/个人日报_熊伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947" activeTab="5"/>
+    <workbookView windowWidth="22103" windowHeight="9947" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
+    <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -381,16 +382,34 @@
   <si>
     <t>小组讨论</t>
   </si>
+  <si>
+    <t>完成项目需求分析以及项目代码编写</t>
+  </si>
+  <si>
+    <t>学习软件工程相关内容</t>
+  </si>
+  <si>
+    <t>听课</t>
+  </si>
+  <si>
+    <t>进行项目需求分析</t>
+  </si>
+  <si>
+    <t>项目部分代码编写</t>
+  </si>
+  <si>
+    <t>根据项目需求进行代码编写</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -638,13 +657,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
@@ -659,17 +671,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -679,9 +690,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -692,28 +704,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -728,6 +739,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,19 +781,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -769,7 +788,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -812,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,91 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +861,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,15 +1460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1461,36 +1471,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,6 +1501,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -1533,8 +1552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,154 +1563,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
@@ -15262,6 +15281,79 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17433,8 +17525,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17720,6 +17812,433 @@
       <c r="F17" s="46">
         <f>SUM(F10:F16)</f>
         <v>8</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="69"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="77"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="77"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="58">
+        <v>3</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B24" s="63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B25" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B26" s="63"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B27" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43667</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43667</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43667</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>2</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="73"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="73"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>5</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>

--- a/个人日报/个人日报_熊伟.xlsx
+++ b/个人日报/个人日报_熊伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947" activeTab="6"/>
+    <workbookView windowWidth="22103" windowHeight="9947" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
+    <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -400,16 +401,61 @@
   <si>
     <t>根据项目需求进行代码编写</t>
   </si>
+  <si>
+    <t>完成项目代码编写以及了解通过MFC制作图形化界面电子词典</t>
+  </si>
+  <si>
+    <t>重写项目需求分析</t>
+  </si>
+  <si>
+    <t>根据老师要求及演示重写项目需求分析</t>
+  </si>
+  <si>
+    <t>完善项目代码</t>
+  </si>
+  <si>
+    <t>多次使用电子词典完善不足</t>
+  </si>
+  <si>
+    <t>了解MFC</t>
+  </si>
+  <si>
+    <t>上网查找相关资料</t>
+  </si>
+  <si>
+    <r>
+      <t>项目创建步骤不熟，所有代码都写在了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中</t>
+    </r>
+  </si>
+  <si>
+    <t>多次练习熟悉流程</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -657,17 +703,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -678,27 +766,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -711,20 +779,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -746,49 +808,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -831,13 +877,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,43 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,19 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +961,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,67 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,23 +1500,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,11 +1545,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,202 +1603,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1913,20 +1959,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15354,6 +15406,79 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15721,383 +15846,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="131" customWidth="1"/>
-    <col min="2" max="2" width="9" style="131"/>
-    <col min="3" max="3" width="8.375" style="131" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="131"/>
+    <col min="1" max="1" width="7.5" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9" style="133"/>
+    <col min="3" max="3" width="8.375" style="133" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" s="130" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A1" s="86"/>
-    </row>
-    <row r="2" s="130" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A2" s="86" t="s">
+    <row r="1" s="132" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A1" s="88"/>
+    </row>
+    <row r="2" s="132" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A3" s="89" t="s">
+    <row r="3" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="132"/>
-    </row>
-    <row r="5" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A5" s="132"/>
-    </row>
-    <row r="6" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A6" s="132"/>
-    </row>
-    <row r="7" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A7" s="132"/>
-    </row>
-    <row r="8" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A8" s="132"/>
-    </row>
-    <row r="9" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A9" s="132"/>
-    </row>
-    <row r="10" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A10" s="132"/>
-    </row>
-    <row r="11" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A11" s="132"/>
-    </row>
-    <row r="12" s="130" customFormat="1" ht="17.4" spans="1:3">
-      <c r="A12" s="132"/>
-      <c r="C12" s="133"/>
-    </row>
-    <row r="13" s="130" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A13" s="132"/>
-    </row>
-    <row r="14" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A14" s="134"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-    </row>
-    <row r="15" s="130" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="136" t="s">
+    <row r="4" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="134"/>
+    </row>
+    <row r="5" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A5" s="134"/>
+    </row>
+    <row r="6" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A6" s="134"/>
+    </row>
+    <row r="7" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A7" s="134"/>
+    </row>
+    <row r="8" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A8" s="134"/>
+    </row>
+    <row r="9" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A9" s="134"/>
+    </row>
+    <row r="10" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A10" s="134"/>
+    </row>
+    <row r="11" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A11" s="134"/>
+    </row>
+    <row r="12" s="132" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A12" s="134"/>
+      <c r="C12" s="135"/>
+    </row>
+    <row r="13" s="132" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A13" s="134"/>
+    </row>
+    <row r="14" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+    </row>
+    <row r="15" s="132" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-    </row>
-    <row r="16" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A16" s="138"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-    </row>
-    <row r="17" s="130" customFormat="1" ht="18" spans="1:9">
-      <c r="A17" s="139" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+    </row>
+    <row r="16" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A16" s="140"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+    </row>
+    <row r="17" s="132" customFormat="1" ht="18" spans="1:9">
+      <c r="A17" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-    </row>
-    <row r="18" s="130" customFormat="1" ht="18" spans="1:9">
-      <c r="A18" s="99">
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+    </row>
+    <row r="18" s="132" customFormat="1" ht="18" spans="1:9">
+      <c r="A18" s="101">
         <v>40142</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-    </row>
-    <row r="19" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A19" s="134"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-    </row>
-    <row r="20" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A20" s="134"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-    </row>
-    <row r="21" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A21" s="134"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-    </row>
-    <row r="22" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A22" s="134"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-    </row>
-    <row r="23" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="134"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-    </row>
-    <row r="24" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="134"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-    </row>
-    <row r="25" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-    </row>
-    <row r="26" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="134"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-    </row>
-    <row r="27" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="134"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-    </row>
-    <row r="28" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-    </row>
-    <row r="29" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="134"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-    </row>
-    <row r="30" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-    </row>
-    <row r="31" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-    </row>
-    <row r="32" s="130" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A32" s="134"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-    </row>
-    <row r="33" s="130" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A33" s="140" t="s">
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+    </row>
+    <row r="19" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A19" s="136"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+    </row>
+    <row r="20" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+    </row>
+    <row r="21" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+    </row>
+    <row r="22" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+    </row>
+    <row r="23" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="136"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+    </row>
+    <row r="24" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="136"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+    </row>
+    <row r="25" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="136"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+    </row>
+    <row r="26" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="136"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+    </row>
+    <row r="27" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+    </row>
+    <row r="28" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="136"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+    </row>
+    <row r="29" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="136"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+    </row>
+    <row r="30" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="136"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+    </row>
+    <row r="31" s="132" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="136"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+    </row>
+    <row r="32" s="132" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A32" s="136"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+    </row>
+    <row r="33" s="132" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A33" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="145"/>
-    </row>
-    <row r="34" s="130" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A34" s="141" t="s">
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="147"/>
+    </row>
+    <row r="34" s="132" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A34" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="145"/>
-    </row>
-    <row r="35" s="130" customFormat="1" spans="1:10">
-      <c r="A35" s="142"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="145"/>
-    </row>
-    <row r="36" s="130" customFormat="1" spans="1:9">
-      <c r="A36" s="135"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-    </row>
-    <row r="37" s="130" customFormat="1"/>
-    <row r="38" s="130" customFormat="1"/>
-    <row r="39" s="130" customFormat="1"/>
-    <row r="40" s="130" customFormat="1"/>
-    <row r="41" s="130" customFormat="1"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="147"/>
+    </row>
+    <row r="35" s="132" customFormat="1" spans="1:10">
+      <c r="A35" s="144"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="147"/>
+    </row>
+    <row r="36" s="132" customFormat="1" spans="1:9">
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+    </row>
+    <row r="37" s="132" customFormat="1"/>
+    <row r="38" s="132" customFormat="1"/>
+    <row r="39" s="132" customFormat="1"/>
+    <row r="40" s="132" customFormat="1"/>
+    <row r="41" s="132" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="143"/>
+      <c r="A58" s="145"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="144"/>
+      <c r="A59" s="146"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="146"/>
+      <c r="A101" s="148"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="146"/>
+      <c r="A102" s="148"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="146"/>
+      <c r="A103" s="148"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="146"/>
+      <c r="A104" s="148"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="146"/>
+      <c r="A105" s="148"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="146"/>
+      <c r="A106" s="148"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="146"/>
+      <c r="A107" s="148"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="146"/>
+      <c r="A108" s="148"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="146"/>
+      <c r="A109" s="148"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="146"/>
+      <c r="A110" s="148"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="146"/>
+      <c r="A111" s="148"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="146"/>
+      <c r="A112" s="148"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="146"/>
+      <c r="A113" s="148"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="146"/>
+      <c r="A114" s="148"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="146"/>
+      <c r="A115" s="148"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="146"/>
+      <c r="A116" s="148"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="146"/>
+      <c r="A117" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16121,208 +16246,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="115" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="115" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="115" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="115" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="115"/>
+    <col min="1" max="1" width="12.625" style="117" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="117" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="117" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="117" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="117"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:5">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="119"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A4" s="121">
+    <row r="4" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A4" s="123">
         <v>1</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="125">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" s="114" customFormat="1" spans="1:4">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="123"/>
-    </row>
-    <row r="6" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
-    </row>
-    <row r="7" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-    </row>
-    <row r="8" s="114" customFormat="1" spans="1:4">
-      <c r="A8" s="121"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="123"/>
-    </row>
-    <row r="9" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-    </row>
-    <row r="10" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A10" s="121"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-    </row>
-    <row r="11" s="114" customFormat="1" spans="1:4">
-      <c r="A11" s="121"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="123"/>
-    </row>
-    <row r="12" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A12" s="121"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-    </row>
-    <row r="13" s="114" customFormat="1" spans="1:4">
-      <c r="A13" s="121"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="123"/>
-    </row>
-    <row r="14" s="114" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A14" s="121"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-    </row>
-    <row r="15" s="114" customFormat="1" spans="1:4">
-      <c r="A15" s="121"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="123"/>
-    </row>
-    <row r="16" s="114" customFormat="1" spans="1:4">
-      <c r="A16" s="121"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="123"/>
-    </row>
-    <row r="17" s="114" customFormat="1" spans="1:4">
-      <c r="A17" s="121"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="123"/>
-    </row>
-    <row r="18" s="114" customFormat="1" spans="1:4">
-      <c r="A18" s="121"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="123"/>
+    <row r="5" s="116" customFormat="1" spans="1:4">
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="125"/>
+    </row>
+    <row r="6" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+    </row>
+    <row r="7" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+    </row>
+    <row r="8" s="116" customFormat="1" spans="1:4">
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="125"/>
+    </row>
+    <row r="9" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+    </row>
+    <row r="10" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A10" s="123"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+    </row>
+    <row r="11" s="116" customFormat="1" spans="1:4">
+      <c r="A11" s="123"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="125"/>
+    </row>
+    <row r="12" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A12" s="123"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+    </row>
+    <row r="13" s="116" customFormat="1" spans="1:4">
+      <c r="A13" s="123"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="125"/>
+    </row>
+    <row r="14" s="116" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A14" s="123"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+    </row>
+    <row r="15" s="116" customFormat="1" spans="1:4">
+      <c r="A15" s="123"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="125"/>
+    </row>
+    <row r="16" s="116" customFormat="1" spans="1:4">
+      <c r="A16" s="123"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="125"/>
+    </row>
+    <row r="17" s="116" customFormat="1" spans="1:4">
+      <c r="A17" s="123"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="125"/>
+    </row>
+    <row r="18" s="116" customFormat="1" spans="1:4">
+      <c r="A18" s="123"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="125"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="121"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="123"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="125"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="121"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="123"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="125"/>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="121"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="123"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="129"/>
+      <c r="A95" s="131"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="129"/>
+      <c r="A96" s="131"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="129"/>
+      <c r="A97" s="131"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="129"/>
+      <c r="A98" s="131"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="129"/>
+      <c r="A99" s="131"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="129"/>
+      <c r="A100" s="131"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="129"/>
+      <c r="A101" s="131"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="129"/>
+      <c r="A102" s="131"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="129"/>
+      <c r="A103" s="131"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="129"/>
+      <c r="A104" s="131"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="129"/>
+      <c r="A105" s="131"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="129"/>
+      <c r="A106" s="131"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="129"/>
+      <c r="A107" s="131"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="129"/>
+      <c r="A108" s="131"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="129"/>
+      <c r="A109" s="131"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="129"/>
+      <c r="A110" s="131"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="129"/>
+      <c r="A111" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16342,327 +16467,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="84" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="84" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="84" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="84" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="84"/>
+    <col min="1" max="1" width="9.25" style="86" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="86" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="86" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="86" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" s="79" customFormat="1" ht="22.8" spans="1:1">
-      <c r="A1" s="85"/>
-    </row>
-    <row r="2" s="79" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="86" t="s">
+    <row r="1" s="81" customFormat="1" ht="22.8" spans="1:1">
+      <c r="A1" s="87"/>
+    </row>
+    <row r="2" s="81" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="80" customFormat="1" ht="22.8" spans="1:9">
-      <c r="A3" s="87" t="s">
+    <row r="3" s="82" customFormat="1" ht="22.8" spans="1:9">
+      <c r="A3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-    </row>
-    <row r="4" s="79" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="89" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" s="81" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A5" s="90"/>
-    </row>
-    <row r="6" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A6" s="90"/>
-    </row>
-    <row r="7" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A7" s="90"/>
-    </row>
-    <row r="8" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A8" s="90"/>
-    </row>
-    <row r="9" s="79" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="90"/>
-    </row>
-    <row r="10" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A10" s="90"/>
-    </row>
-    <row r="11" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A11" s="90"/>
-    </row>
-    <row r="12" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A12" s="90"/>
-    </row>
-    <row r="13" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A13" s="90"/>
-    </row>
-    <row r="14" s="79" customFormat="1" ht="18" spans="1:1">
-      <c r="A14" s="90"/>
-    </row>
-    <row r="15" s="79" customFormat="1" ht="18" spans="1:8">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-    </row>
-    <row r="16" s="81" customFormat="1" ht="45" spans="1:8">
-      <c r="A16" s="93" t="s">
+    <row r="5" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A5" s="92"/>
+    </row>
+    <row r="6" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A6" s="92"/>
+    </row>
+    <row r="7" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A7" s="92"/>
+    </row>
+    <row r="8" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A8" s="92"/>
+    </row>
+    <row r="9" s="81" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="92"/>
+    </row>
+    <row r="10" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A10" s="92"/>
+    </row>
+    <row r="11" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A11" s="92"/>
+    </row>
+    <row r="12" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A12" s="92"/>
+    </row>
+    <row r="13" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A13" s="92"/>
+    </row>
+    <row r="14" s="81" customFormat="1" ht="18" spans="1:1">
+      <c r="A14" s="92"/>
+    </row>
+    <row r="15" s="81" customFormat="1" ht="18" spans="1:8">
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+    </row>
+    <row r="16" s="83" customFormat="1" ht="45" spans="1:8">
+      <c r="A16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" s="81" customFormat="1" spans="1:8">
-      <c r="A17" s="94"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18" s="79" customFormat="1" ht="53.4" spans="1:8">
-      <c r="A18" s="97" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" s="83" customFormat="1" spans="1:8">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+    </row>
+    <row r="18" s="81" customFormat="1" ht="53.4" spans="1:8">
+      <c r="A18" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-    </row>
-    <row r="19" s="79" customFormat="1" ht="18" spans="1:8">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-    </row>
-    <row r="20" s="79" customFormat="1" ht="46.2" spans="1:8">
-      <c r="A20" s="98"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-    </row>
-    <row r="21" s="79" customFormat="1" ht="18" spans="1:8">
-      <c r="A21" s="99"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-    </row>
-    <row r="22" s="79" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="100" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+    </row>
+    <row r="19" s="81" customFormat="1" ht="18" spans="1:8">
+      <c r="A19" s="93"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" s="81" customFormat="1" ht="46.2" spans="1:8">
+      <c r="A20" s="100"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+    </row>
+    <row r="21" s="81" customFormat="1" ht="18" spans="1:8">
+      <c r="A21" s="101"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+    </row>
+    <row r="22" s="81" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-    </row>
-    <row r="23" s="79" customFormat="1" ht="18" spans="1:8">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-    </row>
-    <row r="24" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-    </row>
-    <row r="25" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-    </row>
-    <row r="26" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-    </row>
-    <row r="27" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-    </row>
-    <row r="28" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-    </row>
-    <row r="29" s="82" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="102" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+    </row>
+    <row r="23" s="81" customFormat="1" ht="18" spans="1:8">
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+    </row>
+    <row r="24" s="81" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+    </row>
+    <row r="25" s="81" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+    </row>
+    <row r="26" s="81" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="93"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+    </row>
+    <row r="27" s="81" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" s="81" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" s="84" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" s="82" customFormat="1" spans="1:8">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-    </row>
-    <row r="31" s="82" customFormat="1" spans="1:8">
-      <c r="A31" s="104"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-    </row>
-    <row r="32" s="82" customFormat="1" spans="1:8">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-    </row>
-    <row r="33" s="83" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="106" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+    </row>
+    <row r="30" s="84" customFormat="1" spans="1:8">
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+    </row>
+    <row r="31" s="84" customFormat="1" spans="1:8">
+      <c r="A31" s="106"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+    </row>
+    <row r="32" s="84" customFormat="1" spans="1:8">
+      <c r="A32" s="106"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" s="85" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="106" t="s">
+      <c r="B33" s="109"/>
+      <c r="C33" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="106" t="s">
+      <c r="D33" s="109"/>
+      <c r="E33" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="107"/>
-      <c r="G33" s="108" t="s">
+      <c r="F33" s="109"/>
+      <c r="G33" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="107"/>
-    </row>
-    <row r="34" s="83" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="106" t="s">
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" s="85" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="106" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" s="79" customFormat="1" ht="18" spans="1:8">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-    </row>
-    <row r="36" s="79" customFormat="1" ht="19.2" spans="1:8">
-      <c r="A36" s="110"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-    </row>
-    <row r="37" s="79" customFormat="1" ht="18.6" spans="1:8">
-      <c r="A37" s="111"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-    </row>
-    <row r="38" s="79" customFormat="1"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+    </row>
+    <row r="35" s="81" customFormat="1" ht="18" spans="1:8">
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+    </row>
+    <row r="36" s="81" customFormat="1" ht="19.2" spans="1:8">
+      <c r="A36" s="112"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+    </row>
+    <row r="37" s="81" customFormat="1" ht="18.6" spans="1:8">
+      <c r="A37" s="113"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+    </row>
+    <row r="38" s="81" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="112"/>
+      <c r="A55" s="114"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="113"/>
+      <c r="A56" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16741,14 +16866,14 @@
       <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -16761,7 +16886,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="65"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
@@ -16776,7 +16901,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="66"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
@@ -16791,7 +16916,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="67"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
@@ -16806,7 +16931,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="68"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -16819,7 +16944,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="69"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -16838,7 +16963,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -16858,8 +16983,8 @@
         <v>45</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16879,8 +17004,8 @@
         <v>45</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16900,8 +17025,8 @@
         <v>45</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72" t="s">
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16915,8 +17040,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -16928,8 +17053,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -16941,8 +17066,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -16954,8 +17079,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -16970,8 +17095,8 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -16984,7 +17109,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="69"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -17001,62 +17126,62 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="76"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
         <v>1</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B22" s="58">
+      <c r="B22" s="60">
         <v>3</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="78"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="24" ht="15.6" spans="2:2">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="2:2">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="2:2">
-      <c r="B26" s="63"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" ht="15.6" spans="2:2">
-      <c r="B27" s="63"/>
+      <c r="B27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17167,14 +17292,14 @@
       <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -17187,7 +17312,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="65"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
@@ -17202,7 +17327,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="66"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
@@ -17217,7 +17342,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="67"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
@@ -17232,7 +17357,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="68"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -17245,7 +17370,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="69"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -17264,7 +17389,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17284,8 +17409,8 @@
         <v>57</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17305,8 +17430,8 @@
         <v>57</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17320,8 +17445,8 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B13" s="35">
@@ -17333,8 +17458,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -17346,8 +17471,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -17359,8 +17484,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -17372,8 +17497,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -17388,8 +17513,8 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -17402,7 +17527,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="69"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -17419,62 +17544,62 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="76"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
         <v>1</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B22" s="58">
+      <c r="B22" s="60">
         <v>3</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="78"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B26" s="63"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B27" s="63"/>
+      <c r="B27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17593,7 +17718,7 @@
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -17606,7 +17731,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="65"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
@@ -17621,7 +17746,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="66"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
@@ -17636,7 +17761,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="67"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
@@ -17651,7 +17776,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="68"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -17664,7 +17789,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="69"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -17683,7 +17808,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17703,8 +17828,8 @@
         <v>45</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17724,8 +17849,8 @@
         <v>45</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17745,8 +17870,8 @@
         <v>64</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72" t="s">
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -17760,8 +17885,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -17773,8 +17898,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -17786,8 +17911,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -17799,8 +17924,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -17815,8 +17940,8 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -17829,7 +17954,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="69"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -17846,62 +17971,62 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="76"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
         <v>1</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B22" s="58">
+      <c r="B22" s="60">
         <v>3</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="78"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B26" s="63"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B27" s="63"/>
+      <c r="B27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17952,8 +18077,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18020,7 +18145,7 @@
       <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
@@ -18033,7 +18158,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="65"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
@@ -18048,7 +18173,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="66"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
@@ -18063,7 +18188,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="67"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
@@ -18078,7 +18203,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="68"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
@@ -18091,7 +18216,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="69"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
@@ -18110,7 +18235,7 @@
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -18130,8 +18255,8 @@
         <v>67</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -18151,8 +18276,8 @@
         <v>64</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -18172,8 +18297,8 @@
         <v>70</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72" t="s">
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -18187,8 +18312,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B14" s="35">
@@ -18200,8 +18325,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="42"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B15" s="41">
@@ -18213,8 +18338,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B16" s="35">
@@ -18226,8 +18351,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -18242,8 +18367,8 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B18" s="28" t="s">
@@ -18256,7 +18381,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="69"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
@@ -18273,62 +18398,493 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="76"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="52">
         <v>1</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="57">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B22" s="58">
+      <c r="B22" s="60">
         <v>3</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="78"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B26" s="63"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
-      <c r="B27" s="63"/>
+      <c r="B27" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43668</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43668</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43668</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>3</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="60">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B25" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/个人日报/个人日报_熊伟.xlsx
+++ b/个人日报/个人日报_熊伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947" activeTab="7"/>
+    <workbookView windowWidth="22103" windowHeight="9947" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
+    <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -424,6 +425,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目创建步骤不熟，所有代码都写在了一个</t>
     </r>
     <r>
@@ -446,16 +452,28 @@
   <si>
     <t>多次练习熟悉流程</t>
   </si>
+  <si>
+    <t>完成项目代码完善以及学习通过MFC制作图形化界面电子词典</t>
+  </si>
+  <si>
+    <t>学习MFC并初步完成界面设计</t>
+  </si>
+  <si>
+    <t>MFC使用不熟悉</t>
+  </si>
+  <si>
+    <t>查找相关资料并学习</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -710,6 +728,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -718,7 +769,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -736,41 +843,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
@@ -778,63 +850,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -877,19 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +907,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,37 +979,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,25 +1015,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,67 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,6 +1518,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
       </bottom>
@@ -1545,61 +1613,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1609,154 +1627,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
@@ -15551,6 +15569,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -18504,8 +18595,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18837,6 +18928,437 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55" t="s">
         <v>79</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="60">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B25" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B27" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43669</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43669</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43669</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>4</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>

--- a/个人日报/个人日报_熊伟.xlsx
+++ b/个人日报/个人日报_熊伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="22103" windowHeight="9947" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
+    <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="89">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -464,16 +465,31 @@
   <si>
     <t>查找相关资料并学习</t>
   </si>
+  <si>
+    <t>通过MFC完成图形化电子词典项目部分功能</t>
+  </si>
+  <si>
+    <t>学习MFC的使用</t>
+  </si>
+  <si>
+    <t>编写项目代码</t>
+  </si>
+  <si>
+    <t>完成相应功能的代码编写</t>
+  </si>
+  <si>
+    <t>和组员交流讨论项目</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -722,29 +738,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -762,10 +759,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -775,10 +819,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -794,65 +860,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -895,7 +911,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,13 +941,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,97 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,49 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,20 +1533,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,45 +1571,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,11 +1599,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,154 +1643,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
@@ -15642,6 +15658,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -16326,6 +16415,437 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43670</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43670</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43670</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>8</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="60">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B25" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B27" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -19026,8 +19546,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/个人日报/个人日报_熊伟.xlsx
+++ b/个人日报/个人日报_熊伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="22103" windowHeight="9947" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
     <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
+    <sheet name="2019-7-25" sheetId="13" r:id="rId11"/>
+    <sheet name="2019-7-26" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="100">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -480,16 +482,49 @@
   <si>
     <t>和组员交流讨论项目</t>
   </si>
+  <si>
+    <t>完善项目以及完成个人项目设计</t>
+  </si>
+  <si>
+    <t>完善项目</t>
+  </si>
+  <si>
+    <t>完善部分代码</t>
+  </si>
+  <si>
+    <t>完成个人项目设计</t>
+  </si>
+  <si>
+    <t>根据老师要求写个人项目设计</t>
+  </si>
+  <si>
+    <t>完结项目、小组总结讨论、写个人项目介绍PPT、个人实训总结</t>
+  </si>
+  <si>
+    <t>小组讨论项目，总结经验</t>
+  </si>
+  <si>
+    <t>做个人项目介绍PPT</t>
+  </si>
+  <si>
+    <t>根据项目内容完成PPT</t>
+  </si>
+  <si>
+    <t>写个人实训总结</t>
+  </si>
+  <si>
+    <t>总结项目经验</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -740,28 +775,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -771,6 +786,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -778,15 +806,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -799,42 +839,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -847,15 +860,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -869,6 +883,27 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -911,7 +946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +988,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,25 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,49 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,55 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,13 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,11 +1568,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="23"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,30 +1609,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -1599,17 +1623,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,11 +1658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,154 +1678,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="15" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="15" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
@@ -8781,6 +8816,152 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16420,8 +16601,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16754,6 +16935,860 @@
       <c r="E20" s="55" t="s">
         <v>83</v>
       </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="60">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B25" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B27" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43671</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43671</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43671</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>3</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>4</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="60">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B25" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B27" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43672</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43672</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43672</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
